--- a/src/main/resources/static/document/Template Task Dairy Farm.xlsx
+++ b/src/main/resources/static/document/Template Task Dairy Farm.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranthihongphuc/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9662461A-BACC-264A-9839-9EC9AFEBB33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB6603-8AD2-EA4B-9E7C-FED838A6ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="580" windowWidth="26860" windowHeight="16440" xr2:uid="{15581AB9-8021-8F42-8357-A06B2AA89945}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -450,7 +450,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,12 +485,11 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="str">
-        <f>IF(OR(A2="Cho bò ăn", A2="Lấy sữa bò", A2="Dọn chuồng bò", A2="Khám định kì"), "shiftDay", IF(A2="Trực ca đêm", "shiftNight", ""))</f>
+        <f>IF(OR(A2="Cho bò ăn", A2="Lấy sữa bò", A2="Dọn chuồng bò", A2="Khám định kì"), "dayShift", IF(A2="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
@@ -501,7 +500,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
       <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F66" si="0">IF(OR(A3="Cho bò ăn", A3="Lấy sữa bò", A3="Dọn chuồng bò", A3="Khám định kì"), "shiftDay", IF(A3="Trực ca đêm", "shiftNight", ""))</f>
+        <f t="shared" ref="F3:F66" si="0">IF(OR(A3="Cho bò ăn", A3="Lấy sữa bò", A3="Dọn chuồng bò", A3="Khám định kì"), "dayShift", IF(A3="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
@@ -1208,7 +1207,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="5"/>
       <c r="F67" s="8" t="str">
-        <f t="shared" ref="F67:F100" si="1">IF(OR(A67="Cho bò ăn", A67="Lấy sữa bò", A67="Dọn chuồng bò", A67="Khám định kì"), "shiftDay", IF(A67="Trực ca đêm", "shiftNight", ""))</f>
+        <f t="shared" ref="F67:F100" si="1">IF(OR(A67="Cho bò ăn", A67="Lấy sữa bò", A67="Dọn chuồng bò", A67="Khám định kì"), "dayShift", IF(A67="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
@@ -1576,7 +1575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="n5F+5rYTqEQwwjdgUCTXwWSmHcUrN807P/bB0O8LG79TDuVPxRksK7uBJCPW/YtFqvzG0BPApugDfwKMrf8v9g==" saltValue="gWO3b8wJl8iMDJhXozReRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A100" xr:uid="{AEB41BE3-A7E1-FB45-887D-FE25AF296C14}">
       <formula1>"Cho bò ăn,Lấy sữa bò,Dọn chuồng bò,Khám định kì,Trực ca đêm"</formula1>

--- a/src/main/resources/static/document/Template Task Dairy Farm.xlsx
+++ b/src/main/resources/static/document/Template Task Dairy Farm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranthihongphuc/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB6603-8AD2-EA4B-9E7C-FED838A6ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2315A1A-CD3E-1A47-9D4F-DB3D60835514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="580" windowWidth="26860" windowHeight="16440" xr2:uid="{15581AB9-8021-8F42-8357-A06B2AA89945}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,6 +485,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="5"/>
@@ -555,7 +556,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(A8="Cho bò ăn", A8="Lấy sữa bò", A8="Dọn chuồng bò", A8="Khám định kì"), "dayShift", IF(A8="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
@@ -566,7 +567,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(A9="Cho D10bò ăn", A9="Lấy sữa bò", A9="Dọn chuồng bò", A9="Khám định kì"), "dayShift", IF(A9="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
@@ -577,7 +578,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(A11="Cho bò ăn", A11="Lấy sữa bò", A11="Dọn chuồng bò", A11="Khám định kì"), "dayShift", IF(A11="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
@@ -588,7 +589,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(A12="Cho bò ăn", A12="Lấy sữa bò", A12="Dọn chuồng bò", A12="Khám định kì"), "dayShift", IF(A12="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
@@ -599,7 +600,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(A12="Cho bò ăn", A12="Lấy sữa bò", A12="Dọn chuồng bò", A12="Khám định kì"), "dayShift", IF(A12="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
       <c r="G12" s="1"/>
@@ -611,7 +612,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(A13="Cho bò ăn", A13="Lấy sữa bò", A13="Dọn chuồng bò", A13="Khám định kì"), "dayShift", IF(A13="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
@@ -622,7 +623,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(A14="Cho bò ăn", A14="Lấy sữa bò", A14="Dọn chuồng bò", A14="Khám định kì"), "dayShift", IF(A14="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
@@ -1559,7 +1560,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="5"/>
       <c r="F99" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(A99="Cho bò ăn", A99="Lấy sữa bò", A99="Dọn chuồng bò", A99="Khám định kì"), "dayShift", IF(A99="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
@@ -1570,12 +1571,12 @@
       <c r="D100" s="6"/>
       <c r="E100" s="5"/>
       <c r="F100" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(A100="Cho bò ăn", A100="Lấy sữa bò", A100="Dọn chuồng bò", A100="Khám định kì"), "dayShift", IF(A100="Trực ca đêm", "nightShift", ""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n5F+5rYTqEQwwjdgUCTXwWSmHcUrN807P/bB0O8LG79TDuVPxRksK7uBJCPW/YtFqvzG0BPApugDfwKMrf8v9g==" saltValue="gWO3b8wJl8iMDJhXozReRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hOSKfb5j9iHEG0CnDw/KFEGnD2b1zR+CXJx4YMMYzrbzKSyMJNTXFHRlE8ybJIPX4DgxI4oPLim7g13w+VxLJQ==" saltValue="9OIqmSVQ5BWAn4KPh3Aj3g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A100" xr:uid="{AEB41BE3-A7E1-FB45-887D-FE25AF296C14}">
       <formula1>"Cho bò ăn,Lấy sữa bò,Dọn chuồng bò,Khám định kì,Trực ca đêm"</formula1>
